--- a/airbnb_prices.xlsx
+++ b/airbnb_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:A55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,42 +443,70 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>R$289 
-noite
-R$289 por noite</t>
+          <t>R$127 
+noite
+R$127 por noite</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>R$127 
-noite
-R$127 por noite</t>
+          <t>R$999 
+noite
+R$999 por noite</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>R$999 
-noite
-R$999 por noite</t>
+          <t>R$228 
+R$203 
+noite
+R$203 por noite, originalmente R$228</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>R$126 
-noite
-R$126 por noite</t>
+          <t>R$289 
+noite
+R$289 por noite</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>R$174 
+noite
+R$174 por noite</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>R$126 
+noite
+R$126 por noite</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>R$124 
+noite
+R$124 por noite</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>R$183 
 R$160 
 noite
@@ -486,8 +514,18 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>R$246 
+R$123 
+noite
+R$123 por noite, originalmente R$246</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>R$124 
 noite
@@ -495,8 +533,27 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>R$217 
+R$109 
+noite
+R$109 por noite, originalmente R$217</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>R$299 
+noite
+R$299 por noite</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>R$163 
 R$130 
@@ -505,8 +562,127 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>R$199 
+noite
+R$199 por noite</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>R$91 
+noite
+R$91 por noite</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>R$321 
+noite
+R$321 por noite</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>R$143 
+noite
+R$143 por noite</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>R$196 
+noite
+R$196 por noite</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>R$127 
+noite
+R$127 por noite</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>R$999 
+noite
+R$999 por noite</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>R$228 
+R$203 
+noite
+R$203 por noite, originalmente R$228</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>R$289 
+noite
+R$289 por noite</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>R$174 
+noite
+R$174 por noite</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>R$126 
+noite
+R$126 por noite</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>R$124 
+noite
+R$124 por noite</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>R$183 
+R$160 
+noite
+R$160 por noite, originalmente R$183</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>R$246 
 R$123 
@@ -515,8 +691,8 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>R$124 
 noite
@@ -524,47 +700,100 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>R$205 
-R$171 
-noite
-R$171 por noite, originalmente R$205</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>R$100 
-R$76 
-noite
-R$76 por noite, originalmente R$100</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>R$171 
-R$140 
-noite
-R$140 por noite, originalmente R$171</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>R$628 
-noite
-R$628 por noite</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>R$217 
+R$109 
+noite
+R$109 por noite, originalmente R$217</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>R$299 
+noite
+R$299 por noite</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>R$163 
+R$130 
+noite
+R$130 por noite, originalmente R$163</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>R$199 
+noite
+R$199 por noite</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>R$91 
+noite
+R$91 por noite</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>R$321 
+noite
+R$321 por noite</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>R$143 
+noite
+R$143 por noite</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>R$196 
+noite
+R$196 por noite</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>R$127 
+noite
+R$127 por noite</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>R$999 
+noite
+R$999 por noite</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>R$228 
 R$203 
@@ -573,18 +802,120 @@
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>R$156 
-R$126 
-noite
-R$126 por noite, originalmente R$156</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>R$289 
+noite
+R$289 por noite</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>R$174 
+noite
+R$174 por noite</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>R$126 
+noite
+R$126 por noite</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>R$124 
+noite
+R$124 por noite</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>R$183 
+R$160 
+noite
+R$160 por noite, originalmente R$183</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>R$246 
+R$123 
+noite
+R$123 por noite, originalmente R$246</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>R$124 
+noite
+R$124 por noite</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>R$217 
+R$109 
+noite
+R$109 por noite, originalmente R$217</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>R$299 
+noite
+R$299 por noite</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>R$163 
+R$130 
+noite
+R$130 por noite, originalmente R$163</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>R$199 
+noite
+R$199 por noite</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>R$91 
+noite
+R$91 por noite</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
           <t>R$321 
 noite
@@ -592,22 +923,21 @@
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>R$132 
-R$117 
-noite
-R$117 por noite, originalmente R$132</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>R$103 
-noite
-R$103 por noite</t>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>R$143 
+noite
+R$143 por noite</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>R$196 
+noite
+R$196 por noite</t>
         </is>
       </c>
     </row>
